--- a/medicine/Psychotrope/Collio_Goriziano_Pinot_Bianco/Collio_Goriziano_Pinot_Bianco.xlsx
+++ b/medicine/Psychotrope/Collio_Goriziano_Pinot_Bianco/Collio_Goriziano_Pinot_Bianco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Collio Goriziano Pinot Bianco (ou Collio Pinot Bianco) est un vin blanc italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 3 novembre 1989. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent dans la province de Gorizia dans les communes et hameaux de Brazzano, Capriva del Friuli, Cormons - Plessiva, Dolegna del Collio, Farra d'Isonzo, Lucinico, Mossa, Oslavia, Ruttars et San Floriano del Collio.
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense.
 odeur : caractéristique, agréable, délicat
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Gorizia (1990/91) 8571,53
